--- a/import_template/guidelines/Import Leave.xlsx
+++ b/import_template/guidelines/Import Leave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3D50F-DF73-461C-8EC5-92D600D2BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA3C33-F612-49C8-86E3-772EFD9B6DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Column</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>End time of the leave</t>
+  </si>
+  <si>
+    <t>04/22/2022</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>04/23/2022</t>
+  </si>
+  <si>
+    <t>04/24/2022</t>
+  </si>
+  <si>
+    <t>REJ</t>
+  </si>
+  <si>
+    <t>04/25/2022</t>
+  </si>
+  <si>
+    <t>APVSYS</t>
   </si>
 </sst>
 </file>
@@ -771,10 +795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +857,98 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
